--- a/Шаблон таблицы тест кейсов123.xlsx
+++ b/Шаблон таблицы тест кейсов123.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>passed</t>
   </si>
@@ -94,6 +94,9 @@
     <t>Осуществлен вход с новосями страницы</t>
   </si>
   <si>
+    <t>пройден</t>
+  </si>
+  <si>
     <t>Тест на выход vk.com</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
   </si>
   <si>
     <t>Вход не осуществлен; Открылась страница с красным предупреждащим окошком "Не удается войти"</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
   <si>
     <t>Вход с телефоном из БД и не корректным паролем</t>
@@ -147,6 +153,9 @@
 В поле "пароль" ввести не существующий пароль;
 Пройти капчу;
 Нажать кнопку "Войти";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пройден </t>
   </si>
   <si>
     <t>Проверка функции "забыли пароль" с использованием номера телефона пользователя</t>
@@ -184,11 +193,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +237,13 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -326,10 +342,131 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,96 +479,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -442,37 +489,6 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -515,31 +531,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,84 +562,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,7 +585,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,7 +693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,15 +795,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -804,16 +811,43 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,185 +878,167 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1069,6 +1085,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1078,10 +1097,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1090,34 +1109,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,11 +1151,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1145,7 +1164,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1155,11 +1174,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1559,17 +1578,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="50"/>
+      <c r="B4" s="51"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -1595,11 +1614,11 @@
   <dimension ref="A1:DT61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.82857142857143" defaultRowHeight="15"/>
@@ -1637,40 +1656,40 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="25">
+      <c r="K1" s="25"/>
+      <c r="L1" s="26">
         <f>COUNTIF(L$8:L$42,"failed")</f>
         <v>0</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25">
+      <c r="M1" s="25"/>
+      <c r="N1" s="26">
         <f>COUNTIF(N$8:N$54,"failed")</f>
         <v>0</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25">
+      <c r="O1" s="25"/>
+      <c r="P1" s="26">
         <f>COUNTIF(P$8:P$54,"failed")</f>
         <v>0</v>
       </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="25">
+      <c r="Q1" s="25"/>
+      <c r="R1" s="26">
         <f>COUNTIF(R$8:R$54,"failed")</f>
         <v>0</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="25">
+      <c r="S1" s="25"/>
+      <c r="T1" s="26">
         <f>COUNTIF(T$8:T$54,"failed")</f>
         <v>0</v>
       </c>
-      <c r="U1" s="24"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1"/>
@@ -1682,40 +1701,40 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="26">
+      <c r="K2" s="25"/>
+      <c r="L2" s="27">
         <f>COUNTIF(L$8:L$42,"passed")</f>
         <v>0</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="26">
+      <c r="M2" s="25"/>
+      <c r="N2" s="27">
         <f>COUNTIF(N$8:N$42,"passed")</f>
         <v>0</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="26">
+      <c r="O2" s="25"/>
+      <c r="P2" s="27">
         <f>COUNTIF(P$8:P$42,"passed")</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="26">
+      <c r="Q2" s="25"/>
+      <c r="R2" s="27">
         <f>COUNTIF(R$8:R$42,"passed")</f>
         <v>0</v>
       </c>
-      <c r="S2" s="24"/>
-      <c r="T2" s="26">
+      <c r="S2" s="25"/>
+      <c r="T2" s="27">
         <f>COUNTIF(T$8:T$42,"passed")</f>
         <v>0</v>
       </c>
-      <c r="U2" s="24"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1"/>
@@ -1727,25 +1746,25 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1"/>
@@ -1757,21 +1776,21 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:26">
       <c r="A5" s="1"/>
@@ -1783,35 +1802,35 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="29" t="s">
+      <c r="K5" s="25"/>
+      <c r="L5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="29" t="s">
+      <c r="M5" s="25"/>
+      <c r="N5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="29" t="s">
+      <c r="O5" s="25"/>
+      <c r="P5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="29" t="s">
+      <c r="Q5" s="25"/>
+      <c r="R5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="24"/>
-      <c r="T5" s="29" t="s">
+      <c r="S5" s="25"/>
+      <c r="T5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="24"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:26">
       <c r="A6" s="1"/>
@@ -1837,27 +1856,27 @@
       <c r="I6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32" t="s">
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="32" t="s">
+      <c r="M6" s="25"/>
+      <c r="N6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="24"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
     </row>
     <row r="7" ht="127" customHeight="1" spans="1:26">
       <c r="A7" s="1"/>
@@ -1872,24 +1891,24 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
     </row>
     <row r="8" ht="108" customHeight="1" spans="1:26">
       <c r="A8" s="1"/>
@@ -1908,26 +1927,28 @@
       <c r="F8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="35"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
     </row>
     <row r="9" ht="75" customHeight="1" spans="1:26">
       <c r="A9" s="1"/>
@@ -1936,34 +1957,36 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="9"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="38"/>
+      <c r="I9" s="39"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
     </row>
     <row r="10" ht="111" customHeight="1" spans="1:26">
       <c r="A10" s="1"/>
@@ -1972,34 +1995,36 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="H10" s="12"/>
-      <c r="I10" s="35"/>
+      <c r="I10" s="36"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
     </row>
     <row r="11" ht="102" customHeight="1" spans="1:124">
       <c r="A11" s="1"/>
@@ -2008,132 +2033,134 @@
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="H11" s="15"/>
-      <c r="I11" s="39"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="42"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="43"/>
-      <c r="AJ11" s="42"/>
-      <c r="AK11" s="43"/>
-      <c r="AL11" s="42"/>
-      <c r="AM11" s="43"/>
-      <c r="AN11" s="42"/>
-      <c r="AO11" s="43"/>
-      <c r="AP11" s="42"/>
-      <c r="AQ11" s="43"/>
-      <c r="AR11" s="42"/>
-      <c r="AS11" s="43"/>
-      <c r="AT11" s="42"/>
-      <c r="AU11" s="43"/>
-      <c r="AV11" s="42"/>
-      <c r="AW11" s="43"/>
-      <c r="AX11" s="42"/>
-      <c r="AY11" s="43"/>
-      <c r="AZ11" s="42"/>
-      <c r="BA11" s="43"/>
-      <c r="BB11" s="42"/>
-      <c r="BC11" s="43"/>
-      <c r="BD11" s="42"/>
-      <c r="BE11" s="43"/>
-      <c r="BF11" s="42"/>
-      <c r="BG11" s="43"/>
-      <c r="BH11" s="42"/>
-      <c r="BI11" s="43"/>
-      <c r="BJ11" s="42"/>
-      <c r="BK11" s="43"/>
-      <c r="BL11" s="42"/>
-      <c r="BM11" s="43"/>
-      <c r="BN11" s="42"/>
-      <c r="BO11" s="43"/>
-      <c r="BP11" s="42"/>
-      <c r="BQ11" s="43"/>
-      <c r="BR11" s="42"/>
-      <c r="BS11" s="43"/>
-      <c r="BT11" s="42"/>
-      <c r="BU11" s="43"/>
-      <c r="BV11" s="42"/>
-      <c r="BW11" s="43"/>
-      <c r="BX11" s="42"/>
-      <c r="BY11" s="43"/>
-      <c r="BZ11" s="46"/>
-      <c r="CA11" s="43"/>
-      <c r="CB11" s="42"/>
-      <c r="CC11" s="43"/>
-      <c r="CD11" s="47"/>
-      <c r="CE11" s="43"/>
-      <c r="CF11" s="42"/>
-      <c r="CG11" s="43"/>
-      <c r="CH11" s="46"/>
-      <c r="CI11" s="43"/>
-      <c r="CJ11" s="42"/>
-      <c r="CK11" s="43"/>
-      <c r="CL11" s="42"/>
-      <c r="CM11" s="43"/>
-      <c r="CN11" s="42"/>
-      <c r="CO11" s="43"/>
-      <c r="CP11" s="42"/>
-      <c r="CQ11" s="43"/>
-      <c r="CR11" s="42"/>
-      <c r="CS11" s="43"/>
-      <c r="CT11" s="42"/>
-      <c r="CU11" s="43"/>
-      <c r="CV11" s="42"/>
-      <c r="CW11" s="43"/>
-      <c r="CX11" s="42"/>
-      <c r="CY11" s="41"/>
-      <c r="CZ11" s="42"/>
-      <c r="DA11" s="41"/>
-      <c r="DB11" s="42"/>
-      <c r="DC11" s="41"/>
-      <c r="DD11" s="42"/>
-      <c r="DE11" s="41"/>
-      <c r="DF11" s="42"/>
-      <c r="DG11" s="41"/>
-      <c r="DH11" s="42"/>
-      <c r="DI11" s="41"/>
-      <c r="DJ11" s="42"/>
-      <c r="DK11" s="42"/>
-      <c r="DL11" s="42"/>
-      <c r="DM11" s="42"/>
-      <c r="DN11" s="48"/>
-      <c r="DO11" s="42"/>
-      <c r="DP11" s="49"/>
-      <c r="DQ11" s="49"/>
-      <c r="DR11" s="49"/>
-      <c r="DS11" s="49"/>
-      <c r="DT11" s="49"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="44"/>
+      <c r="AJ11" s="43"/>
+      <c r="AK11" s="44"/>
+      <c r="AL11" s="43"/>
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="43"/>
+      <c r="AO11" s="44"/>
+      <c r="AP11" s="43"/>
+      <c r="AQ11" s="44"/>
+      <c r="AR11" s="43"/>
+      <c r="AS11" s="44"/>
+      <c r="AT11" s="43"/>
+      <c r="AU11" s="44"/>
+      <c r="AV11" s="43"/>
+      <c r="AW11" s="44"/>
+      <c r="AX11" s="43"/>
+      <c r="AY11" s="44"/>
+      <c r="AZ11" s="43"/>
+      <c r="BA11" s="44"/>
+      <c r="BB11" s="43"/>
+      <c r="BC11" s="44"/>
+      <c r="BD11" s="43"/>
+      <c r="BE11" s="44"/>
+      <c r="BF11" s="43"/>
+      <c r="BG11" s="44"/>
+      <c r="BH11" s="43"/>
+      <c r="BI11" s="44"/>
+      <c r="BJ11" s="43"/>
+      <c r="BK11" s="44"/>
+      <c r="BL11" s="43"/>
+      <c r="BM11" s="44"/>
+      <c r="BN11" s="43"/>
+      <c r="BO11" s="44"/>
+      <c r="BP11" s="43"/>
+      <c r="BQ11" s="44"/>
+      <c r="BR11" s="43"/>
+      <c r="BS11" s="44"/>
+      <c r="BT11" s="43"/>
+      <c r="BU11" s="44"/>
+      <c r="BV11" s="43"/>
+      <c r="BW11" s="44"/>
+      <c r="BX11" s="43"/>
+      <c r="BY11" s="44"/>
+      <c r="BZ11" s="47"/>
+      <c r="CA11" s="44"/>
+      <c r="CB11" s="43"/>
+      <c r="CC11" s="44"/>
+      <c r="CD11" s="48"/>
+      <c r="CE11" s="44"/>
+      <c r="CF11" s="43"/>
+      <c r="CG11" s="44"/>
+      <c r="CH11" s="47"/>
+      <c r="CI11" s="44"/>
+      <c r="CJ11" s="43"/>
+      <c r="CK11" s="44"/>
+      <c r="CL11" s="43"/>
+      <c r="CM11" s="44"/>
+      <c r="CN11" s="43"/>
+      <c r="CO11" s="44"/>
+      <c r="CP11" s="43"/>
+      <c r="CQ11" s="44"/>
+      <c r="CR11" s="43"/>
+      <c r="CS11" s="44"/>
+      <c r="CT11" s="43"/>
+      <c r="CU11" s="44"/>
+      <c r="CV11" s="43"/>
+      <c r="CW11" s="44"/>
+      <c r="CX11" s="43"/>
+      <c r="CY11" s="42"/>
+      <c r="CZ11" s="43"/>
+      <c r="DA11" s="42"/>
+      <c r="DB11" s="43"/>
+      <c r="DC11" s="42"/>
+      <c r="DD11" s="43"/>
+      <c r="DE11" s="42"/>
+      <c r="DF11" s="43"/>
+      <c r="DG11" s="42"/>
+      <c r="DH11" s="43"/>
+      <c r="DI11" s="42"/>
+      <c r="DJ11" s="43"/>
+      <c r="DK11" s="43"/>
+      <c r="DL11" s="43"/>
+      <c r="DM11" s="43"/>
+      <c r="DN11" s="49"/>
+      <c r="DO11" s="43"/>
+      <c r="DP11" s="50"/>
+      <c r="DQ11" s="50"/>
+      <c r="DR11" s="50"/>
+      <c r="DS11" s="50"/>
+      <c r="DT11" s="50"/>
     </row>
     <row r="12" ht="124" customHeight="1" spans="1:26">
       <c r="A12" s="1"/>
@@ -2142,34 +2169,36 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="H12" s="12"/>
-      <c r="I12" s="35"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
     </row>
     <row r="13" ht="63" customHeight="1" spans="1:26">
       <c r="A13" s="1"/>
@@ -2178,34 +2207,36 @@
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="H13" s="12"/>
-      <c r="I13" s="35"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="Z13" s="21"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
     </row>
     <row r="14" ht="77" customHeight="1" spans="1:26">
       <c r="A14" s="1"/>
@@ -2214,34 +2245,36 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="H14" s="12"/>
-      <c r="I14" s="35"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
     </row>
     <row r="15" ht="50" customHeight="1" spans="1:26">
       <c r="A15" s="1"/>
@@ -2250,34 +2283,36 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="H15" s="12"/>
-      <c r="I15" s="35"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
     </row>
     <row r="16" ht="47" customHeight="1" spans="1:26">
       <c r="A16" s="1"/>
@@ -2286,30 +2321,30 @@
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="35"/>
+      <c r="I16" s="36"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
     </row>
     <row r="17" ht="53" customHeight="1" spans="1:26">
       <c r="A17" s="1"/>
@@ -2321,24 +2356,24 @@
       <c r="F17" s="15"/>
       <c r="G17" s="9"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="35"/>
+      <c r="I17" s="36"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
     </row>
     <row r="18" ht="45" customHeight="1" spans="1:26">
       <c r="A18" s="1"/>
@@ -2351,24 +2386,24 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="35"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
     </row>
     <row r="19" ht="49" customHeight="1" spans="1:26">
       <c r="A19" s="1"/>
@@ -2381,24 +2416,24 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="35"/>
+      <c r="I19" s="36"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="1"/>
@@ -2411,24 +2446,24 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="35"/>
+      <c r="I20" s="36"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
     </row>
     <row r="21" ht="42" customHeight="1" spans="1:26">
       <c r="A21" s="1"/>
@@ -2441,24 +2476,24 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="35"/>
+      <c r="I21" s="36"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1"/>
@@ -2471,24 +2506,24 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="35"/>
+      <c r="I22" s="36"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="1"/>
@@ -2501,24 +2536,24 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="35"/>
+      <c r="I23" s="36"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="1"/>
@@ -2531,24 +2566,24 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="12"/>
-      <c r="I24" s="35"/>
+      <c r="I24" s="36"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="1"/>
@@ -2561,24 +2596,24 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="12"/>
-      <c r="I25" s="35"/>
+      <c r="I25" s="36"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="1"/>
@@ -2586,29 +2621,29 @@
         <v>19</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="16"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="11"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="35"/>
+      <c r="I26" s="36"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="1"/>
@@ -2616,29 +2651,29 @@
         <v>20</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="16"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="11"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="12"/>
-      <c r="I27" s="35"/>
+      <c r="I27" s="36"/>
       <c r="J27" s="12"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="1"/>
@@ -2651,24 +2686,24 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="35"/>
+      <c r="I28" s="36"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="1"/>
@@ -2681,24 +2716,24 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="12"/>
-      <c r="I29" s="35"/>
+      <c r="I29" s="36"/>
       <c r="J29" s="12"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="1"/>
@@ -2711,24 +2746,24 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="38"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="38"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="1"/>
@@ -2741,24 +2776,24 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="12"/>
-      <c r="I31" s="35"/>
+      <c r="I31" s="36"/>
       <c r="J31" s="12"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="1"/>
@@ -2771,24 +2806,24 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="12"/>
-      <c r="I32" s="35"/>
+      <c r="I32" s="36"/>
       <c r="J32" s="12"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="1"/>
@@ -2801,24 +2836,24 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="12"/>
-      <c r="I33" s="35"/>
+      <c r="I33" s="36"/>
       <c r="J33" s="12"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
     </row>
     <row r="34" spans="1:26">
       <c r="A34" s="1"/>
@@ -2831,24 +2866,24 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="12"/>
-      <c r="I34" s="35"/>
+      <c r="I34" s="36"/>
       <c r="J34" s="12"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
     </row>
     <row r="35" spans="1:26">
       <c r="A35" s="1"/>
@@ -2861,24 +2896,24 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="12"/>
-      <c r="I35" s="35"/>
+      <c r="I35" s="36"/>
       <c r="J35" s="12"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
     </row>
     <row r="36" spans="1:26">
       <c r="A36" s="1"/>
@@ -2891,24 +2926,24 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="12"/>
-      <c r="I36" s="35"/>
+      <c r="I36" s="36"/>
       <c r="J36" s="12"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
     </row>
     <row r="37" spans="1:26">
       <c r="A37" s="1"/>
@@ -2921,24 +2956,24 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="35"/>
+      <c r="I37" s="36"/>
       <c r="J37" s="12"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="1"/>
@@ -2951,24 +2986,24 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="35"/>
+      <c r="I38" s="36"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
     </row>
     <row r="39" spans="1:26">
       <c r="A39" s="1"/>
@@ -2981,24 +3016,24 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="12"/>
-      <c r="I39" s="35"/>
+      <c r="I39" s="36"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
     </row>
     <row r="40" spans="1:26">
       <c r="A40" s="1"/>
@@ -3011,24 +3046,24 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="12"/>
-      <c r="I40" s="35"/>
+      <c r="I40" s="36"/>
       <c r="J40" s="12"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
     </row>
     <row r="41" spans="1:26">
       <c r="A41" s="1"/>
@@ -3043,509 +3078,509 @@
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="24"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
     </row>
     <row r="42" spans="1:26">
       <c r="A42" s="1"/>
-      <c r="B42" s="17">
+      <c r="B42" s="18">
         <v>35</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="24"/>
-      <c r="T42" s="37"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="20">
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="21">
         <f>COUNT(I8:I42)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="45"/>
-      <c r="W43" s="45"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="20">
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="21">
         <f>COUNTA(D8:D42)</f>
         <v>9</v>
       </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="45"/>
-      <c r="W44" s="45"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="20">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="21">
         <f>COUNT(J8:J42)</f>
         <v>0</v>
       </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="45"/>
-      <c r="W45" s="45"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="22"/>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22"/>
     </row>
     <row r="46" spans="2:26">
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
     </row>
     <row r="47" ht="14.25" customHeight="1" spans="2:26">
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
     </row>
     <row r="48" ht="14.25" customHeight="1" spans="1:26">
-      <c r="A48" s="22"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="21"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="22"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="22"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="21"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="22"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="22"/>
+      <c r="Z50" s="22"/>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="22"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="21"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="22"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="21"/>
-      <c r="W52" s="21"/>
-      <c r="X52" s="21"/>
-      <c r="Y52" s="21"/>
-      <c r="Z52" s="21"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="22"/>
+      <c r="V52" s="22"/>
+      <c r="W52" s="22"/>
+      <c r="X52" s="22"/>
+      <c r="Y52" s="22"/>
+      <c r="Z52" s="22"/>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="22"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="22"/>
+      <c r="W53" s="22"/>
+      <c r="X53" s="22"/>
+      <c r="Y53" s="22"/>
+      <c r="Z53" s="22"/>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="22"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+      <c r="T54" s="22"/>
+      <c r="U54" s="22"/>
+      <c r="V54" s="22"/>
+      <c r="W54" s="22"/>
+      <c r="X54" s="22"/>
+      <c r="Y54" s="22"/>
+      <c r="Z54" s="22"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="22"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="21"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="22"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="21"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22"/>
     </row>
     <row r="57" spans="1:26">
-      <c r="A57" s="22"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="21"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="21"/>
-      <c r="T57" s="21"/>
-      <c r="U57" s="21"/>
-      <c r="V57" s="21"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="21"/>
-      <c r="Y57" s="21"/>
-      <c r="Z57" s="21"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="22"/>
+      <c r="Z57" s="22"/>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="22"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="21"/>
-      <c r="W58" s="21"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="21"/>
-      <c r="Z58" s="21"/>
+      <c r="A58" s="23"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="22"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="22"/>
-      <c r="U59" s="21"/>
-      <c r="V59" s="21"/>
-      <c r="W59" s="21"/>
-      <c r="X59" s="21"/>
-      <c r="Y59" s="21"/>
-      <c r="Z59" s="21"/>
+      <c r="A59" s="23"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
     </row>
     <row r="60" spans="26:26">
-      <c r="Z60" s="21"/>
+      <c r="Z60" s="22"/>
     </row>
     <row r="61" spans="26:26">
-      <c r="Z61" s="21"/>
+      <c r="Z61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="13">
